--- a/cau_3.xlsx
+++ b/cau_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\All_Dowload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chuyendephattrienweb1_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C1F6145-4484-4626-9653-E27D855E4301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC79BF8-45B2-434F-A5D9-D4C31F00DAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F19B60C3-1020-4B98-9CBD-DE22C1E3203F}"/>
   </bookViews>
@@ -75,18 +75,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -122,19 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,7 +462,7 @@
   <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,138 +472,138 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="b">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="b">
+      <c r="B4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="b">
+      <c r="B5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="b">
+      <c r="B6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="b">
+      <c r="B7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">

--- a/cau_3.xlsx
+++ b/cau_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chuyendephattrienweb1_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC79BF8-45B2-434F-A5D9-D4C31F00DAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B7F1D-1A32-4ED4-A1B7-FEEAF7A7DD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F19B60C3-1020-4B98-9CBD-DE22C1E3203F}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,13 +500,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="b">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3" t="b">
         <v>1</v>

--- a/cau_3.xlsx
+++ b/cau_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chuyendephattrienweb1_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B7F1D-1A32-4ED4-A1B7-FEEAF7A7DD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0662F6E3-9116-4F12-9EA6-524327847217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F19B60C3-1020-4B98-9CBD-DE22C1E3203F}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
